--- a/src/test/resources/test-data/hr_test_data.xlsx
+++ b/src/test/resources/test-data/hr_test_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mine\Company\CGI Aug 2024\automation_workspace\EmployeeManagementAutomation\src\test\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4AB0CB-A867-4038-987E-204913388FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEF174-27AB-4CCE-97C1-1FFD66767B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F237831-FA58-4B15-AD1F-156DBC0664AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6F237831-FA58-4B15-AD1F-156DBC0664AB}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidLoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="validLoginTest" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>kevin123</t>
+  </si>
+  <si>
+    <t>ExpectedValue</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Quick Launch</t>
   </si>
 </sst>
 </file>
@@ -442,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B427511D-079C-4134-9967-948AF65A3C27}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -504,12 +516,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41304801-6EBF-4E0B-855E-59B0AF86BAEE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
